--- a/English.xlsx
+++ b/English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SteamLibrary\steamapps\common\Barotrauma\LocalMods\Vanilla Components Expanded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F069972-87CC-41EF-AAE2-164C7B2E033F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7230284C-A7A8-43AC-9ECE-61B3DF711E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>switchableProjectiles</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,20 @@
   </si>
   <si>
     <t>All items in Microsoft.Xna.Framework.Input.Keys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkMagCondition</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Misc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whether the condition of the mag should be checked</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -334,11 +348,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,6 +419,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -884,6 +944,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>

--- a/English.xlsx
+++ b/English.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SteamLibrary\steamapps\common\Barotrauma\LocalMods\Vanilla Components Expanded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7230284C-A7A8-43AC-9ECE-61B3DF711E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6272C6B-B5FF-47F7-B916-74F51EEF799B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>switchableProjectiles</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,34 @@
   </si>
   <si>
     <t>Whether the condition of the mag should be checked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchableSlots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A list consists of ints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lists that contains all index available projectile comes from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To list all slots projectiles come from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This will automatically override switchableProjectiles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -385,11 +413,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,6 +453,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,13 +471,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -722,13 +769,14 @@
     <col min="2" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="8" max="8" width="49.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -750,9 +798,12 @@
       <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="H1" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -773,204 +824,240 @@
       <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="1" t="s">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="6" t="b">
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="13" t="b">
+      <c r="G12" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="H12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/English.xlsx
+++ b/English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SteamLibrary\steamapps\common\Barotrauma\LocalMods\Vanilla Components Expanded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6272C6B-B5FF-47F7-B916-74F51EEF799B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DC9839-7C98-4BB7-9C71-D9D61AB3FD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>switchableProjectiles</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,14 @@
   </si>
   <si>
     <t>This will automatically override switchableProjectiles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only works in Burst firemode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,6 +470,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,12 +480,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -798,12 +803,12 @@
       <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -829,20 +834,20 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -853,7 +858,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -875,7 +880,7 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -897,7 +902,7 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -912,16 +917,16 @@
       <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -943,7 +948,7 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,7 +970,7 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,15 +984,17 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,7 +1016,7 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>

--- a/English.xlsx
+++ b/English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SteamLibrary\steamapps\common\Barotrauma\LocalMods\Vanilla Components Expanded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DC9839-7C98-4BB7-9C71-D9D61AB3FD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE8EEC3-3685-4473-A0DA-FF1197C763C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>switchableProjectiles</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,21 @@
   </si>
   <si>
     <t>Auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BotReload</t>
+  </si>
+  <si>
+    <t>Bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only works when firemode is Semi/Burst and bots are using it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire interval when using by bots in Semi/Burst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +495,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -762,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -788,13 +806,13 @@
       <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -838,13 +856,13 @@
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1060,6 +1078,32 @@
         <v>1</v>
       </c>
       <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/English.xlsx
+++ b/English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SteamLibrary\steamapps\common\Barotrauma\LocalMods\Vanilla Components Expanded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE8EEC3-3685-4473-A0DA-FF1197C763C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D8D324-BD54-4948-B42B-8F1E0BAF25B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>switchableProjectiles</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,10 @@
   </si>
   <si>
     <t>Fire interval when using by bots in Semi/Burst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lerp(reload, reload*4, 1-reload)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,9 +499,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -794,7 +795,7 @@
     <col min="4" max="4" width="51" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -856,13 +857,13 @@
       <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1098,8 +1099,8 @@
       <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="10">
-        <v>0.1</v>
+      <c r="G13" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>59</v>
